--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2638,11 +2638,22 @@
       <c r="A197" s="7" t="n">
         <v>45617</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" s="4" t="n">
         <v>0.8462210572302316</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197" s="4" t="n">
         <v>2.49190369554891</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="7" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.490716180371353</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.861255350465757</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2649,11 +2649,22 @@
       <c r="A198" s="7" t="n">
         <v>45618</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" s="4" t="n">
         <v>1.490716180371353</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198" s="4" t="n">
         <v>3.861255350465757</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="7" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.8340782122905028</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.728261615679039</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2660,11 +2660,22 @@
       <c r="A199" s="7" t="n">
         <v>45621</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199" s="4" t="n">
         <v>0.8340782122905028</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199" s="4" t="n">
         <v>2.728261615679039</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="7" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7084531339850488</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.609776933634059</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2671,11 +2671,22 @@
       <c r="A200" s="7" t="n">
         <v>45622</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" s="4" t="n">
         <v>0.7084531339850488</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200" s="4" t="n">
         <v>2.609776933634059</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="7" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.764090909090909</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.001919526540706</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2682,11 +2682,22 @@
       <c r="A201" s="7" t="n">
         <v>45623</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" s="4" t="n">
         <v>0.764090909090909</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201" s="4" t="n">
         <v>2.001919526540706</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="7" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.6215130023640661</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.782352358488415</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2693,11 +2693,22 @@
       <c r="A202" s="7" t="n">
         <v>45624</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" s="4" t="n">
         <v>0.6215130023640661</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202" s="4" t="n">
         <v>2.782352358488415</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="7" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.502712477396022</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.223931580017291</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2704,11 +2704,22 @@
       <c r="A203" s="7" t="n">
         <v>45625</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" s="4" t="n">
         <v>1.502712477396022</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203" s="4" t="n">
         <v>3.223931580017291</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="7" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.051256281407035</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.162997762731779</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2715,11 +2715,22 @@
       <c r="A204" s="7" t="n">
         <v>45628</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" s="4" t="n">
         <v>1.051256281407035</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204" s="4" t="n">
         <v>5.162997762731779</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="7" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.7084729535662997</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.273971602582173</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2726,11 +2726,22 @@
       <c r="A205" s="7" t="n">
         <v>45629</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" s="4" t="n">
         <v>0.7084729535662997</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205" s="4" t="n">
         <v>3.273971602582173</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="7" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.4487572352740892</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.411834346586642</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2737,11 +2737,22 @@
       <c r="A206" s="7" t="n">
         <v>45630</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" s="4" t="n">
         <v>0.4487572352740892</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206" s="4" t="n">
         <v>3.411834346586642</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="7" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.6937212863705973</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.103699909337706</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2748,11 +2748,22 @@
       <c r="A207" s="7" t="n">
         <v>45631</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" s="4" t="n">
         <v>0.6937212863705973</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207" s="4" t="n">
         <v>4.103699909337706</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="7" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.6602267954640907</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.859060330958892</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2759,11 +2759,22 @@
       <c r="A208" s="7" t="n">
         <v>45632</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" s="4" t="n">
         <v>0.6602267954640907</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208" s="4" t="n">
         <v>4.859060330958892</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="7" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.7457317073170732</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.599473131854285</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2770,11 +2770,22 @@
       <c r="A209" s="7" t="n">
         <v>45635</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" s="4" t="n">
         <v>0.7457317073170732</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209" s="4" t="n">
         <v>4.599473131854285</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="7" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.28709872804361</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5.328368199518843</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2781,11 +2781,22 @@
       <c r="A210" s="7" t="n">
         <v>45636</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" s="4" t="n">
         <v>1.28709872804361</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210" s="4" t="n">
         <v>5.328368199518843</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="7" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.6276346604215457</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.805500479567578</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2792,11 +2792,22 @@
       <c r="A211" s="7" t="n">
         <v>45637</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211" s="4" t="n">
         <v>0.6276346604215457</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211" s="4" t="n">
         <v>2.805500479567578</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="7" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.9981296758104738</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.344956182885758</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -2803,10 +2803,10 @@
       <c r="A212" s="7" t="n">
         <v>45638</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212" s="4" t="n">
         <v>0.9981296758104738</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212" s="4" t="n">
         <v>4.344956182885758</v>
       </c>
     </row>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2808,6 +2808,17 @@
       </c>
       <c r="C212" s="4" t="n">
         <v>4.344956182885758</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="7" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.438009049773756</v>
+      </c>
+      <c r="C213" t="n">
+        <v>14.99075973287113</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2814,11 +2814,22 @@
       <c r="A213" s="7" t="n">
         <v>45642</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" s="4" t="n">
         <v>5.438009049773756</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213" s="4" t="n">
         <v>14.99075973287113</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="7" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.373413897280967</v>
+      </c>
+      <c r="C214" t="n">
+        <v>12.18668684020495</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2825,11 +2825,22 @@
       <c r="A214" s="7" t="n">
         <v>45643</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" s="4" t="n">
         <v>1.373413897280967</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214" s="4" t="n">
         <v>12.18668684020495</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="7" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2.959866220735786</v>
+      </c>
+      <c r="C215" t="n">
+        <v>30.42615906267835</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2836,11 +2836,33 @@
       <c r="A215" s="7" t="n">
         <v>45644</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" s="4" t="n">
         <v>2.959866220735786</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215" s="4" t="n">
         <v>30.42615906267835</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="7" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B216" s="4" t="n">
+        <v>3.467248908296943</v>
+      </c>
+      <c r="C216" s="4" t="n">
+        <v>49.08960367960234</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="7" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.470809792843691</v>
+      </c>
+      <c r="C217" t="n">
+        <v>11.39631514366555</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2858,11 +2858,22 @@
       <c r="A217" s="7" t="n">
         <v>45645</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217" s="4" t="n">
         <v>1.470809792843691</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217" s="4" t="n">
         <v>11.39631514366555</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="7" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.9191112654053116</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.062288387759316</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2869,11 +2869,22 @@
       <c r="A218" s="7" t="n">
         <v>45646</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" s="4" t="n">
         <v>0.9191112654053116</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218" s="4" t="n">
         <v>5.062288387759316</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="7" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.5256624492719026</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9.994066355553306</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2880,11 +2880,22 @@
       <c r="A219" s="7" t="n">
         <v>45649</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" s="4" t="n">
         <v>0.5256624492719026</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219" s="4" t="n">
         <v>9.994066355553306</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="7" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.9153203342618385</v>
+      </c>
+      <c r="C220" t="n">
+        <v>10.0767354658323</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2891,11 +2891,22 @@
       <c r="A220" s="7" t="n">
         <v>45652</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220" s="4" t="n">
         <v>0.9153203342618385</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220" s="4" t="n">
         <v>10.0767354658323</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="7" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.2529061525375673</v>
+      </c>
+      <c r="C221" t="n">
+        <v>10.56493806664901</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2902,11 +2902,22 @@
       <c r="A221" s="7" t="n">
         <v>45653</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221" s="4" t="n">
         <v>0.2529061525375673</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221" s="4" t="n">
         <v>10.56493806664901</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="7" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.004273504273504</v>
+      </c>
+      <c r="C222" t="n">
+        <v>15.46326661014755</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2913,11 +2913,22 @@
       <c r="A222" s="7" t="n">
         <v>45658</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222" s="4" t="n">
         <v>1.004273504273504</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222" s="4" t="n">
         <v>15.46326661014755</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="7" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.6266782156777826</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.680491365715137</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2924,11 +2924,22 @@
       <c r="A223" s="7" t="n">
         <v>45659</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223" s="4" t="n">
         <v>0.6266782156777826</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223" s="4" t="n">
         <v>1.680491365715137</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="7" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.7675647120972002</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.231290061500492</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2935,11 +2935,22 @@
       <c r="A224" s="7" t="n">
         <v>45663</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224" s="4" t="n">
         <v>0.7675647120972002</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224" s="4" t="n">
         <v>2.231290061500492</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="7" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3.315670800450958</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.883707904607177</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>
